--- a/Data/Pengujian/hasil_pengujian_512_Avg10_AllComb.xlsx
+++ b/Data/Pengujian/hasil_pengujian_512_Avg10_AllComb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMHAS\TA_Python_Server\Data\Pengujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F081466C-315B-4D32-ADFC-A4E5C1056929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55A7935-7D7A-4DAE-B54D-B7FE7403254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Close Set" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Time!$A$1:$E$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Time!$A$1:$F$65</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="70">
   <si>
     <t>count</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>128</t>
+  </si>
+  <si>
+    <t>256</t>
   </si>
   <si>
     <t>DEFAULT</t>
@@ -595,20 +598,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,1099 +627,1294 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>7.9299999999999998E-4</v>
+      </c>
+      <c r="D2">
+        <v>2.5533333333333328E-3</v>
+      </c>
+      <c r="E2">
+        <v>8.0443333333333339E-3</v>
+      </c>
+      <c r="F2">
+        <v>3.0166666666666661E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>9.1233333333333325E-4</v>
+      </c>
+      <c r="D3">
+        <v>2.473666666666667E-3</v>
+      </c>
+      <c r="E3">
+        <v>8.0593333333333333E-3</v>
+      </c>
+      <c r="F3">
+        <v>3.0192E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>7.003333333333333E-4</v>
+      </c>
+      <c r="D4">
+        <v>2.098E-3</v>
+      </c>
+      <c r="E4">
+        <v>8.2086666666666645E-3</v>
+      </c>
+      <c r="F4">
+        <v>3.1007666666666669E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>6.5199999999999991E-4</v>
+      </c>
+      <c r="D5">
+        <v>2.0746666666666669E-3</v>
+      </c>
+      <c r="E5">
+        <v>8.2466666666666678E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.1189000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>9.0733333333333334E-4</v>
+      </c>
+      <c r="D6">
+        <v>2.8056666666666668E-3</v>
+      </c>
+      <c r="E6">
+        <v>9.5259999999999997E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.6024E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>4.8653999999999998E-3</v>
-      </c>
-      <c r="D2">
-        <v>3.53592E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.24260880000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>8.7666666666666665E-4</v>
+      </c>
+      <c r="D7">
+        <v>2.8253333333333342E-3</v>
+      </c>
+      <c r="E7">
+        <v>9.5623333333333341E-3</v>
+      </c>
+      <c r="F7">
+        <v>3.6033999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>8.6166666666666672E-4</v>
+      </c>
+      <c r="D8">
+        <v>2.8319999999999999E-3</v>
+      </c>
+      <c r="E8">
+        <v>9.9769999999999998E-3</v>
+      </c>
+      <c r="F8">
+        <v>3.8287000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>8.2733333333333324E-4</v>
+      </c>
+      <c r="D9">
+        <v>2.581333333333333E-3</v>
+      </c>
+      <c r="E9">
+        <v>9.7276666666666674E-3</v>
+      </c>
+      <c r="F9">
+        <v>3.8289666666666673E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>7.049999999999999E-4</v>
+      </c>
+      <c r="D10">
+        <v>2.4889999999999999E-3</v>
+      </c>
+      <c r="E10">
+        <v>9.784000000000001E-3</v>
+      </c>
+      <c r="F10">
+        <v>3.8298666666666668E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>7.3700000000000013E-4</v>
+      </c>
+      <c r="D11">
+        <v>2.7039999999999998E-3</v>
+      </c>
+      <c r="E11">
+        <v>9.9699999999999997E-3</v>
+      </c>
+      <c r="F11">
+        <v>3.8325333333333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>8.34E-4</v>
+      </c>
+      <c r="D12">
+        <v>3.4776666666666671E-3</v>
+      </c>
+      <c r="E12">
+        <v>1.209066666666667E-2</v>
+      </c>
+      <c r="F12">
+        <v>4.6811999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>8.1100000000000009E-4</v>
+      </c>
+      <c r="D13">
+        <v>3.4616666666666671E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.213966666666667E-2</v>
+      </c>
+      <c r="F13">
+        <v>4.6864666666666673E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>1.6230000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>5.4790000000000004E-3</v>
+      </c>
+      <c r="E14">
+        <v>1.9723999999999998E-2</v>
+      </c>
+      <c r="F14">
+        <v>7.2680000000000008E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>1.719E-3</v>
+      </c>
+      <c r="D15">
+        <v>5.5046666666666664E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.9505999999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>7.2763999999999995E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>9.41E-4</v>
+      </c>
+      <c r="D16">
+        <v>3.802666666666666E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.4741000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>7.4474333333333323E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>9.8466666666666668E-4</v>
+      </c>
+      <c r="D17">
+        <v>3.8140000000000001E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.4785333333333329E-2</v>
+      </c>
+      <c r="F17">
+        <v>7.4533000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
+        <v>8.83E-4</v>
+      </c>
+      <c r="D18">
+        <v>3.5753333333333331E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.6326E-2</v>
+      </c>
+      <c r="F18">
+        <v>7.4744000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>8.5366666666666674E-4</v>
+      </c>
+      <c r="D19">
+        <v>3.5839999999999999E-3</v>
+      </c>
+      <c r="E19">
+        <v>1.6364E-2</v>
+      </c>
+      <c r="F19">
+        <v>7.4815666666666669E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20">
+        <v>8.1033333333333337E-4</v>
+      </c>
+      <c r="D20">
+        <v>3.395E-3</v>
+      </c>
+      <c r="E20">
+        <v>1.651366666666667E-2</v>
+      </c>
+      <c r="F20">
+        <v>8.1358333333333324E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21">
+        <v>8.4633333333333338E-4</v>
+      </c>
+      <c r="D21">
+        <v>3.3303333333333331E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.4874999999999999E-2</v>
+      </c>
+      <c r="F21">
+        <v>8.1438999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>8.1933333333333337E-4</v>
+      </c>
+      <c r="D22">
+        <v>3.4813333333333328E-3</v>
+      </c>
+      <c r="E22">
+        <v>1.647333333333334E-2</v>
+      </c>
+      <c r="F22">
+        <v>8.1527666666666665E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>8.119999999999999E-4</v>
+      </c>
+      <c r="D23">
+        <v>3.3089999999999999E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.484866666666667E-2</v>
+      </c>
+      <c r="F23">
+        <v>8.1582666666666664E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>4.8152999999999998E-3</v>
-      </c>
-      <c r="D3">
-        <v>3.4612999999999998E-2</v>
-      </c>
-      <c r="E3">
-        <v>0.24546309999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>4.1145000000000001E-3</v>
-      </c>
-      <c r="D4">
-        <v>2.7820299999999999E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.18166099999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1.851E-3</v>
-      </c>
-      <c r="D5">
-        <v>7.4450000000000002E-3</v>
-      </c>
-      <c r="E5">
-        <v>4.9050700000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>6.2048000000000008E-3</v>
-      </c>
-      <c r="D6">
-        <v>4.1363999999999998E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.35319230000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>2.5603000000000002E-3</v>
-      </c>
-      <c r="D7">
-        <v>1.19664E-2</v>
-      </c>
-      <c r="E7">
-        <v>5.1749799999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>1.7367999999999999E-3</v>
-      </c>
-      <c r="D8">
-        <v>6.3734999999999998E-3</v>
-      </c>
-      <c r="E8">
-        <v>2.2528800000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>4.2401000000000001E-3</v>
-      </c>
-      <c r="D9">
-        <v>2.9095800000000002E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.18346499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1.8645999999999999E-3</v>
-      </c>
-      <c r="D10">
-        <v>7.332E-3</v>
-      </c>
-      <c r="E10">
-        <v>5.050410000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1.7237999999999999E-3</v>
-      </c>
-      <c r="D11">
-        <v>8.6236000000000004E-3</v>
-      </c>
-      <c r="E11">
-        <v>5.9270999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>5.1244999999999997E-3</v>
-      </c>
-      <c r="D12">
-        <v>3.3659199999999993E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.49498399999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>7.5527000000000007E-3</v>
-      </c>
-      <c r="D13">
-        <v>4.7822200000000002E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.2179721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>2.0514999999999999E-3</v>
-      </c>
-      <c r="D14">
-        <v>7.6264000000000002E-3</v>
-      </c>
-      <c r="E14">
-        <v>4.6798499999999993E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>2.5232000000000002E-3</v>
-      </c>
-      <c r="D15">
-        <v>1.2011300000000001E-2</v>
-      </c>
-      <c r="E15">
-        <v>5.2075299999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>1.3638000000000001E-3</v>
-      </c>
-      <c r="D16">
-        <v>7.1178000000000014E-3</v>
-      </c>
-      <c r="E16">
-        <v>3.2732900000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>1.754666666666667E-3</v>
+      </c>
+      <c r="D24">
+        <v>6.3703333333333329E-3</v>
+      </c>
+      <c r="E24">
+        <v>2.2682333333333329E-2</v>
+      </c>
+      <c r="F24">
+        <v>8.6687E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>1.7583333333333331E-3</v>
+      </c>
+      <c r="D25">
+        <v>6.3756666666666658E-3</v>
+      </c>
+      <c r="E25">
+        <v>2.2606666666666671E-2</v>
+      </c>
+      <c r="F25">
+        <v>8.6804333333333331E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>1.663E-3</v>
+      </c>
+      <c r="D26">
+        <v>7.5330000000000006E-3</v>
+      </c>
+      <c r="E26">
+        <v>2.9072000000000001E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.118592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>8.5966666666666657E-4</v>
+      </c>
+      <c r="D27">
+        <v>3.2133333333333328E-3</v>
+      </c>
+      <c r="E27">
+        <v>2.861233333333333E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.11959</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>8.6466666666666669E-4</v>
+      </c>
+      <c r="D28">
+        <v>3.2103333333333341E-3</v>
+      </c>
+      <c r="E28">
+        <v>2.8531999999999998E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.11962399999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>1.627666666666667E-3</v>
+      </c>
+      <c r="D29">
+        <v>7.7130000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>2.9422E-2</v>
+      </c>
+      <c r="F29">
+        <v>0.12273333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>9.4333333333333335E-4</v>
+      </c>
+      <c r="D30">
+        <v>3.4060000000000002E-3</v>
+      </c>
+      <c r="E30">
+        <v>2.9371666666666671E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.13732900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>8.9433333333333335E-4</v>
+      </c>
+      <c r="D31">
+        <v>3.3340000000000002E-3</v>
+      </c>
+      <c r="E31">
+        <v>2.9104333333333329E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.137599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1.424666666666667E-3</v>
+      </c>
+      <c r="D32">
+        <v>7.3469999999999994E-3</v>
+      </c>
+      <c r="E32">
+        <v>3.3708666666666658E-2</v>
+      </c>
+      <c r="F32">
+        <v>0.14323666666666671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
-        <v>1.0541000000000001E-3</v>
-      </c>
-      <c r="D17">
-        <v>3.2108000000000002E-3</v>
-      </c>
-      <c r="E17">
-        <v>1.3348799999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>2.9302999999999998E-3</v>
-      </c>
-      <c r="D18">
-        <v>1.16016E-2</v>
-      </c>
-      <c r="E18">
-        <v>4.9754299999999987E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
-        <v>1.7297E-3</v>
-      </c>
-      <c r="D19">
-        <v>6.3664999999999998E-3</v>
-      </c>
-      <c r="E19">
-        <v>2.2485999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>1.5338000000000001E-3</v>
-      </c>
-      <c r="D20">
-        <v>5.3952000000000002E-3</v>
-      </c>
-      <c r="E20">
-        <v>1.95759E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>6.6029999999999995E-4</v>
-      </c>
-      <c r="D21">
-        <v>2.0991E-3</v>
-      </c>
-      <c r="E21">
-        <v>8.1690000000000009E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>1.6333999999999999E-3</v>
-      </c>
-      <c r="D22">
-        <v>7.8209999999999981E-3</v>
-      </c>
-      <c r="E22">
-        <v>3.3266700000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23">
-        <v>7.069E-4</v>
-      </c>
-      <c r="D23">
-        <v>2.5696999999999998E-3</v>
-      </c>
-      <c r="E23">
-        <v>9.7776000000000009E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>1.7833E-3</v>
-      </c>
-      <c r="D24">
-        <v>8.6227000000000005E-3</v>
-      </c>
-      <c r="E24">
-        <v>5.9562299999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>4.1717999999999998E-3</v>
-      </c>
-      <c r="D25">
-        <v>2.6083200000000001E-2</v>
-      </c>
-      <c r="E25">
-        <v>0.1710469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>2.0479999999999999E-3</v>
-      </c>
-      <c r="D26">
-        <v>7.6387E-3</v>
-      </c>
-      <c r="E26">
-        <v>4.6656600000000013E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>1.7348000000000001E-3</v>
-      </c>
-      <c r="D27">
-        <v>7.6930999999999996E-3</v>
-      </c>
-      <c r="E27">
-        <v>5.0035099999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>1.3512999999999999E-3</v>
-      </c>
-      <c r="D28">
-        <v>7.0583999999999994E-3</v>
-      </c>
-      <c r="E28">
-        <v>3.267189999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>1.0916000000000001E-3</v>
-      </c>
-      <c r="D29">
-        <v>3.1803999999999999E-3</v>
-      </c>
-      <c r="E29">
-        <v>1.3236E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>1.3240000000000001E-3</v>
-      </c>
-      <c r="D30">
-        <v>4.5513999999999997E-3</v>
-      </c>
-      <c r="E30">
-        <v>2.3698799999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>2.955800000000001E-3</v>
-      </c>
-      <c r="D31">
-        <v>1.14888E-2</v>
-      </c>
-      <c r="E31">
-        <v>4.9978900000000007E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>1.5747000000000001E-3</v>
-      </c>
-      <c r="D32">
-        <v>7.3182999999999998E-3</v>
-      </c>
-      <c r="E32">
-        <v>2.7807099999999991E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
       <c r="C33">
-        <v>2.2506000000000002E-3</v>
+        <v>1.501333333333333E-3</v>
       </c>
       <c r="D33">
-        <v>7.1730000000000014E-3</v>
+        <v>7.3203333333333341E-3</v>
       </c>
       <c r="E33">
-        <v>3.9688399999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.3712666666666662E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.14352233333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C34">
-        <v>1.5460000000000001E-3</v>
+        <v>1.601E-3</v>
       </c>
       <c r="D34">
-        <v>5.4893000000000008E-3</v>
+        <v>6.8073333333333354E-3</v>
       </c>
       <c r="E34">
-        <v>1.9490199999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.2453999999999997E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.1457786666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>6.3309999999999994E-4</v>
+        <v>1.6230000000000001E-3</v>
       </c>
       <c r="D35">
-        <v>2.1971999999999998E-3</v>
+        <v>6.7873333333333336E-3</v>
       </c>
       <c r="E35">
-        <v>8.1172000000000015E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.2455999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.1463956666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C36">
-        <v>7.7739999999999992E-4</v>
+        <v>1.6329999999999999E-3</v>
       </c>
       <c r="D36">
-        <v>2.4359999999999998E-3</v>
+        <v>7.8799999999999999E-3</v>
       </c>
       <c r="E36">
-        <v>7.8829999999999976E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.3814666666666673E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.15124399999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>46</v>
       </c>
       <c r="C37">
-        <v>1.6762999999999999E-3</v>
+        <v>1.7346666666666669E-3</v>
       </c>
       <c r="D37">
-        <v>7.8695999999999992E-3</v>
+        <v>7.9556666666666664E-3</v>
       </c>
       <c r="E37">
-        <v>3.3433699999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.3251666666666659E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.15146033333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>1.5887E-3</v>
+        <v>2.7016666666666669E-3</v>
       </c>
       <c r="D38">
-        <v>6.8218000000000003E-3</v>
+        <v>1.168366666666667E-2</v>
       </c>
       <c r="E38">
-        <v>3.2425299999999997E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.9670666666666669E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.20452799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>8.7759999999999986E-4</v>
+        <v>2.7330000000000002E-3</v>
       </c>
       <c r="D39">
-        <v>3.434200000000001E-3</v>
+        <v>1.161733333333333E-2</v>
       </c>
       <c r="E39">
-        <v>2.8959100000000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.9547000000000001E-2</v>
+      </c>
+      <c r="F39">
+        <v>0.20513366666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>7.1040000000000003E-4</v>
+        <v>2.4423333333333328E-3</v>
       </c>
       <c r="D40">
-        <v>2.5615E-3</v>
+        <v>1.1746333333333331E-2</v>
       </c>
       <c r="E40">
-        <v>9.7806000000000004E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.1590666666666667E-2</v>
+      </c>
+      <c r="F40">
+        <v>0.21835966666666659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>7.7139999999999999E-4</v>
+        <v>2.399333333333334E-3</v>
       </c>
       <c r="D41">
-        <v>3.2759E-3</v>
+        <v>1.169066666666667E-2</v>
       </c>
       <c r="E41">
-        <v>1.2167900000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.148133333333333E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.21873433333333339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C42">
-        <v>7.9950000000000008E-4</v>
+        <v>1.073666666666667E-3</v>
       </c>
       <c r="D42">
-        <v>3.5899999999999999E-3</v>
+        <v>3.2653333333333341E-3</v>
       </c>
       <c r="E42">
-        <v>1.2042499999999999E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.4331E-2</v>
+      </c>
+      <c r="F42">
+        <v>0.2984093333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <v>7.8510000000000006E-4</v>
+        <v>1.1130000000000001E-3</v>
       </c>
       <c r="D43">
-        <v>3.272999999999999E-3</v>
+        <v>3.3083333333333328E-3</v>
       </c>
       <c r="E43">
-        <v>1.7463900000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.410666666666666E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.30113800000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>1.7432999999999999E-3</v>
+        <v>1.129E-3</v>
       </c>
       <c r="D44">
-        <v>7.6590000000000009E-3</v>
+        <v>3.4650000000000002E-3</v>
       </c>
       <c r="E44">
-        <v>4.9976E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.4447666666666669E-2</v>
+      </c>
+      <c r="F44">
+        <v>0.30508666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>1.3604000000000001E-3</v>
+        <v>1.1280000000000001E-3</v>
       </c>
       <c r="D45">
-        <v>4.6620000000000003E-3</v>
+        <v>3.4450000000000001E-3</v>
       </c>
       <c r="E45">
-        <v>2.3092100000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.4561666666666671E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.3072346666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C46">
-        <v>1.6184000000000001E-3</v>
+        <v>1.174666666666667E-3</v>
       </c>
       <c r="D46">
-        <v>7.1890999999999986E-3</v>
+        <v>3.4870000000000001E-3</v>
       </c>
       <c r="E46">
-        <v>2.7882199999999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.4480333333333329E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.30940233333333328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>34</v>
       </c>
       <c r="C47">
-        <v>2.1949000000000001E-3</v>
+        <v>1.1473333333333331E-3</v>
       </c>
       <c r="D47">
-        <v>7.2412000000000006E-3</v>
+        <v>3.5070000000000001E-3</v>
       </c>
       <c r="E47">
-        <v>3.97174E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.4263333333333329E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.3109116666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C48">
-        <v>1.4231999999999999E-3</v>
+        <v>1.207E-3</v>
       </c>
       <c r="D48">
-        <v>4.8009999999999997E-3</v>
+        <v>3.617E-3</v>
       </c>
       <c r="E48">
-        <v>2.1133800000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.4763999999999999E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.31250966666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>7.8819999999999997E-4</v>
+        <v>1.1966666666666671E-3</v>
       </c>
       <c r="D49">
-        <v>2.4786999999999999E-3</v>
+        <v>3.676E-3</v>
       </c>
       <c r="E49">
-        <v>8.1571999999999999E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.4552000000000001E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.316805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C50">
-        <v>1.5832000000000001E-3</v>
+        <v>1.787666666666667E-3</v>
       </c>
       <c r="D50">
-        <v>6.7392000000000007E-3</v>
+        <v>8.0929999999999995E-3</v>
       </c>
       <c r="E50">
-        <v>3.2398999999999997E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.9947666666666668E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.38982899999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C51">
-        <v>8.7720000000000007E-4</v>
+        <v>1.733666666666667E-3</v>
       </c>
       <c r="D51">
-        <v>3.4259999999999998E-3</v>
+        <v>8.0473333333333334E-3</v>
       </c>
       <c r="E51">
-        <v>2.9024399999999999E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.0223333333333342E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.40683399999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C52">
-        <v>8.5349999999999988E-4</v>
+        <v>2.068E-3</v>
       </c>
       <c r="D52">
-        <v>3.2117000000000001E-3</v>
+        <v>7.8733333333333329E-3</v>
       </c>
       <c r="E52">
-        <v>2.8448299999999999E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.643033333333333E-2</v>
+      </c>
+      <c r="F52">
+        <v>0.45180733333333339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>7.7640000000000001E-4</v>
+        <v>2.0543333333333329E-3</v>
       </c>
       <c r="D53">
-        <v>3.2647000000000002E-3</v>
+        <v>7.9123333333333337E-3</v>
       </c>
       <c r="E53">
-        <v>1.2097399999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.6573666666666659E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.45325733333333329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>7.9090000000000009E-4</v>
+        <v>1.5900000000000001E-3</v>
       </c>
       <c r="D54">
-        <v>3.5228999999999998E-3</v>
+        <v>6.5833333333333334E-3</v>
       </c>
       <c r="E54">
-        <v>1.20635E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.2737666666666667E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.45686433333333332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>9.0269999999999999E-4</v>
+        <v>1.6956666666666669E-3</v>
       </c>
       <c r="D55">
-        <v>2.9356E-3</v>
+        <v>6.3399999999999993E-3</v>
       </c>
       <c r="E55">
-        <v>9.4618999999999988E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.1945999999999997E-2</v>
+      </c>
+      <c r="F55">
+        <v>0.45697366666666672</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="C56">
-        <v>8.0110000000000012E-4</v>
+        <v>1.538333333333333E-3</v>
       </c>
       <c r="D56">
-        <v>3.2818999999999999E-3</v>
+        <v>7.3606666666666673E-3</v>
       </c>
       <c r="E56">
-        <v>1.74805E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.0301000000000012E-2</v>
+      </c>
+      <c r="F56">
+        <v>0.4595393333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C57">
-        <v>8.292000000000001E-4</v>
+        <v>1.594333333333333E-3</v>
       </c>
       <c r="D57">
-        <v>3.5148000000000002E-3</v>
+        <v>7.503666666666668E-3</v>
       </c>
       <c r="E57">
-        <v>1.84098E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.1085666666666668E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.4619693333333334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>9.0800000000000017E-4</v>
+        <v>3.8909999999999999E-3</v>
       </c>
       <c r="D58">
-        <v>4.4068000000000006E-3</v>
+        <v>2.3638333333333331E-2</v>
       </c>
       <c r="E58">
-        <v>1.7870299999999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.15287700000000001</v>
+      </c>
+      <c r="F58">
+        <v>1.017887666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>1.4207E-3</v>
+        <v>3.7330000000000002E-3</v>
       </c>
       <c r="D59">
-        <v>4.7656999999999986E-3</v>
+        <v>2.3810000000000001E-2</v>
       </c>
       <c r="E59">
-        <v>2.09418E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.152785</v>
+      </c>
+      <c r="F59">
+        <v>1.0198253333333329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>8.3510000000000008E-4</v>
+        <v>4.1186666666666672E-3</v>
       </c>
       <c r="D60">
-        <v>3.2120999999999999E-3</v>
+        <v>2.6005333333333339E-2</v>
       </c>
       <c r="E60">
-        <v>2.83821E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.16714399999999999</v>
+      </c>
+      <c r="F60">
+        <v>1.3593556666666671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C61">
-        <v>9.1409999999999983E-4</v>
+        <v>4.5846666666666666E-3</v>
       </c>
       <c r="D61">
-        <v>2.819299999999999E-3</v>
+        <v>2.7175666666666671E-2</v>
       </c>
       <c r="E61">
-        <v>9.4299000000000015E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.16775399999999999</v>
+      </c>
+      <c r="F61">
+        <v>1.3604426666666669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>8.3049999999999997E-4</v>
+        <v>4.3676666666666664E-3</v>
       </c>
       <c r="D62">
-        <v>3.457E-3</v>
+        <v>2.9416333333333329E-2</v>
       </c>
       <c r="E62">
-        <v>1.8351699999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.210891</v>
+      </c>
+      <c r="F62">
+        <v>1.487400333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>9.1029999999999995E-4</v>
+        <v>4.2893333333333334E-3</v>
       </c>
       <c r="D63">
-        <v>4.3430000000000014E-3</v>
+        <v>3.0697666666666661E-2</v>
       </c>
       <c r="E63">
-        <v>1.7842400000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.20791566666666669</v>
+      </c>
+      <c r="F63">
+        <v>1.491171666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>8.116E-4</v>
+        <v>5.6506666666666658E-3</v>
       </c>
       <c r="D64">
-        <v>3.6633999999999989E-3</v>
+        <v>3.5378333333333331E-2</v>
       </c>
       <c r="E64">
-        <v>1.88626E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.26273566666666659</v>
+      </c>
+      <c r="F64">
+        <v>1.903319666666667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>8.1229999999999996E-4</v>
+        <v>5.6686666666666656E-3</v>
       </c>
       <c r="D65">
-        <v>3.6159E-3</v>
+        <v>3.5704333333333338E-2</v>
       </c>
       <c r="E65">
-        <v>1.89169E-2</v>
+        <v>0.264372</v>
+      </c>
+      <c r="F65">
+        <v>1.9049906666666669</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E65" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E65">
-      <sortCondition ref="A1:A65"/>
+  <autoFilter ref="A1:F65" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+      <sortCondition ref="F1:F65"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1725,13 +1923,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1747,13 +1945,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>43</v>
@@ -1764,13 +1965,16 @@
       <c r="E2">
         <v>172</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -1781,13 +1985,16 @@
       <c r="E3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>43</v>
@@ -1798,13 +2005,16 @@
       <c r="E4">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -1815,13 +2025,16 @@
       <c r="E5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>43</v>
@@ -1832,13 +2045,16 @@
       <c r="E6">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -1849,13 +2065,16 @@
       <c r="E7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>45</v>
@@ -1866,13 +2085,16 @@
       <c r="E8">
         <v>188</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -1883,13 +2105,16 @@
       <c r="E9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>43</v>
@@ -1900,13 +2125,16 @@
       <c r="E10">
         <v>172</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -1917,13 +2145,16 @@
       <c r="E11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>43</v>
@@ -1934,13 +2165,16 @@
       <c r="E12">
         <v>172</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1951,13 +2185,16 @@
       <c r="E13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>44</v>
@@ -1968,13 +2205,16 @@
       <c r="E14">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -1985,13 +2225,16 @@
       <c r="E15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>44</v>
@@ -2002,13 +2245,16 @@
       <c r="E16">
         <v>184</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -2019,13 +2265,16 @@
       <c r="E17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>43</v>
@@ -2036,13 +2285,16 @@
       <c r="E18">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>43</v>
@@ -2053,13 +2305,16 @@
       <c r="E19">
         <v>172</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>43</v>
@@ -2070,13 +2325,16 @@
       <c r="E20">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>43</v>
@@ -2087,13 +2345,16 @@
       <c r="E21">
         <v>172</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>44</v>
@@ -2104,13 +2365,16 @@
       <c r="E22">
         <v>178</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>44</v>
@@ -2121,47 +2385,56 @@
       <c r="E23">
         <v>178</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F24">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E25">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>43</v>
@@ -2172,13 +2445,16 @@
       <c r="E26">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>43</v>
@@ -2189,13 +2465,16 @@
       <c r="E27">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>44</v>
@@ -2206,13 +2485,16 @@
       <c r="E28">
         <v>172</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>44</v>
@@ -2223,81 +2505,96 @@
       <c r="E29">
         <v>172</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F30">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F31">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E32">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F32">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E33">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F33">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>24</v>
@@ -2308,13 +2605,16 @@
       <c r="E34">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>12</v>
@@ -2325,13 +2625,16 @@
       <c r="E35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>24</v>
@@ -2342,13 +2645,16 @@
       <c r="E36">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -2359,13 +2665,16 @@
       <c r="E37">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>22</v>
@@ -2376,13 +2685,16 @@
       <c r="E38">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -2393,13 +2705,16 @@
       <c r="E39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>24</v>
@@ -2410,13 +2725,16 @@
       <c r="E40">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>12</v>
@@ -2427,13 +2745,16 @@
       <c r="E41">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>26</v>
@@ -2444,13 +2765,16 @@
       <c r="E42">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>12</v>
@@ -2461,13 +2785,16 @@
       <c r="E43">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>26</v>
@@ -2478,13 +2805,16 @@
       <c r="E44">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>12</v>
@@ -2495,13 +2825,16 @@
       <c r="E45">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>26</v>
@@ -2512,13 +2845,16 @@
       <c r="E46">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>12</v>
@@ -2529,13 +2865,16 @@
       <c r="E47">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>26</v>
@@ -2546,13 +2885,16 @@
       <c r="E48">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>12</v>
@@ -2563,13 +2905,16 @@
       <c r="E49">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>22</v>
@@ -2580,13 +2925,16 @@
       <c r="E50">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>14</v>
@@ -2597,13 +2945,16 @@
       <c r="E51">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>27</v>
@@ -2614,13 +2965,16 @@
       <c r="E52">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>12</v>
@@ -2631,13 +2985,16 @@
       <c r="E53">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>22</v>
@@ -2648,13 +3005,16 @@
       <c r="E54">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>14</v>
@@ -2665,13 +3025,16 @@
       <c r="E55">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>27</v>
@@ -2682,13 +3045,16 @@
       <c r="E56">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
         <v>12</v>
@@ -2699,13 +3065,16 @@
       <c r="E57">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>28</v>
@@ -2714,15 +3083,18 @@
         <v>37</v>
       </c>
       <c r="E58">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>11</v>
@@ -2733,13 +3105,16 @@
       <c r="E59">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>28</v>
@@ -2748,15 +3123,18 @@
         <v>31</v>
       </c>
       <c r="E60">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>11</v>
@@ -2767,30 +3145,36 @@
       <c r="E61">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>27</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>12</v>
@@ -2801,13 +3185,16 @@
       <c r="E63">
         <v>12</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>28</v>
@@ -2816,15 +3203,18 @@
         <v>31</v>
       </c>
       <c r="E64">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>11</v>
@@ -2833,6 +3223,9 @@
         <v>13</v>
       </c>
       <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65">
         <v>12</v>
       </c>
     </row>
@@ -2843,13 +3236,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2865,13 +3258,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>79</v>
@@ -2882,13 +3278,16 @@
       <c r="E2">
         <v>446</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>79</v>
@@ -2899,13 +3298,16 @@
       <c r="E3">
         <v>446</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>118</v>
@@ -2916,13 +3318,16 @@
       <c r="E4">
         <v>693</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>118</v>
@@ -2933,13 +3338,16 @@
       <c r="E5">
         <v>693</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>104</v>
@@ -2950,13 +3358,16 @@
       <c r="E6">
         <v>734</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>104</v>
@@ -2967,13 +3378,16 @@
       <c r="E7">
         <v>734</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -2984,13 +3398,16 @@
       <c r="E8">
         <v>580</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -3001,13 +3418,16 @@
       <c r="E9">
         <v>580</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>49</v>
@@ -3018,13 +3438,16 @@
       <c r="E10">
         <v>290</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>49</v>
@@ -3035,13 +3458,16 @@
       <c r="E11">
         <v>290</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>103</v>
@@ -3052,13 +3478,16 @@
       <c r="E12">
         <v>808</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>103</v>
@@ -3069,13 +3498,16 @@
       <c r="E13">
         <v>808</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>111</v>
@@ -3086,13 +3518,16 @@
       <c r="E14">
         <v>765</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>111</v>
@@ -3103,13 +3538,16 @@
       <c r="E15">
         <v>765</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>102</v>
@@ -3120,13 +3558,16 @@
       <c r="E16">
         <v>654</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>102</v>
@@ -3137,285 +3578,336 @@
       <c r="E17">
         <v>654</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D18">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="E18">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1094</v>
+      </c>
+      <c r="F18">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="D19">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="E19">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1094</v>
+      </c>
+      <c r="F19">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E20">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="F20">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="E21">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="F21">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E22">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="F22">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E23">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="F23">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D24">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="E24">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="F24">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D25">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="E25">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="F25">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D26">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="E26">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="F26">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D27">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="E27">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="F27">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D28">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E28">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+      <c r="F28">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D29">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E29">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+      <c r="F29">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="D30">
-        <v>426</v>
+        <v>233</v>
       </c>
       <c r="E30">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="F30">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="D31">
-        <v>426</v>
+        <v>233</v>
       </c>
       <c r="E31">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="F31">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D32">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="E32">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="F32">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D33">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="E33">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+      <c r="F33">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -3426,13 +3918,16 @@
       <c r="E34">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>11</v>
@@ -3443,13 +3938,16 @@
       <c r="E35">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -3460,13 +3958,16 @@
       <c r="E36">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>16</v>
@@ -3477,13 +3978,16 @@
       <c r="E37">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -3494,13 +3998,16 @@
       <c r="E38">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -3511,13 +4018,16 @@
       <c r="E39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -3528,13 +4038,16 @@
       <c r="E40">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>16</v>
@@ -3545,13 +4058,16 @@
       <c r="E41">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>19</v>
@@ -3562,13 +4078,16 @@
       <c r="E42">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>19</v>
@@ -3579,13 +4098,16 @@
       <c r="E43">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>18</v>
@@ -3596,13 +4118,16 @@
       <c r="E44">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -3613,13 +4138,16 @@
       <c r="E45">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>16</v>
@@ -3630,13 +4158,16 @@
       <c r="E46">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -3647,13 +4178,16 @@
       <c r="E47">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>16</v>
@@ -3664,13 +4198,16 @@
       <c r="E48">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>16</v>
@@ -3681,13 +4218,16 @@
       <c r="E49">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -3698,13 +4238,16 @@
       <c r="E50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>11</v>
@@ -3715,47 +4258,56 @@
       <c r="E51">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E52">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E53">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3766,13 +4318,16 @@
       <c r="E54">
         <v>15</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>11</v>
@@ -3783,16 +4338,19 @@
       <c r="E55">
         <v>15</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <v>21</v>
@@ -3800,16 +4358,19 @@
       <c r="E56">
         <v>19</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D57">
         <v>21</v>
@@ -3817,13 +4378,16 @@
       <c r="E57">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>21</v>
@@ -3832,15 +4396,18 @@
         <v>25</v>
       </c>
       <c r="E58">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>21</v>
@@ -3849,83 +4416,98 @@
         <v>25</v>
       </c>
       <c r="E59">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60">
         <v>24</v>
       </c>
       <c r="E60">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61">
         <v>24</v>
       </c>
       <c r="E61">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="F61">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>21</v>
       </c>
       <c r="D62">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F62">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>21</v>
       </c>
       <c r="D63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F63">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>21</v>
@@ -3934,15 +4516,18 @@
         <v>24</v>
       </c>
       <c r="E64">
+        <v>28</v>
+      </c>
+      <c r="F64">
         <v>33</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>21</v>
@@ -3951,6 +4536,9 @@
         <v>24</v>
       </c>
       <c r="E65">
+        <v>28</v>
+      </c>
+      <c r="F65">
         <v>33</v>
       </c>
     </row>
@@ -3961,13 +4549,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3983,13 +4571,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>328</v>
@@ -4000,13 +4591,16 @@
       <c r="E2">
         <v>5260</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>20981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>328</v>
@@ -4017,13 +4611,16 @@
       <c r="E3">
         <v>5260</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>20981</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>248</v>
@@ -4034,13 +4631,16 @@
       <c r="E4">
         <v>3648</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>14364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>248</v>
@@ -4051,13 +4651,16 @@
       <c r="E5">
         <v>3648</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>14364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>63</v>
@@ -4068,13 +4671,16 @@
       <c r="E6">
         <v>590</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>63</v>
@@ -4085,13 +4691,16 @@
       <c r="E7">
         <v>590</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>58</v>
@@ -4102,13 +4711,16 @@
       <c r="E8">
         <v>674</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>58</v>
@@ -4119,13 +4731,16 @@
       <c r="E9">
         <v>674</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>473</v>
@@ -4136,13 +4751,16 @@
       <c r="E10">
         <v>7555</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>28506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>473</v>
@@ -4153,13 +4771,16 @@
       <c r="E11">
         <v>7555</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>28506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>299</v>
@@ -4170,13 +4791,16 @@
       <c r="E12">
         <v>4095</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>16743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>299</v>
@@ -4187,13 +4811,16 @@
       <c r="E13">
         <v>4095</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>16743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -4204,13 +4831,16 @@
       <c r="E14">
         <v>614</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -4221,13 +4851,16 @@
       <c r="E15">
         <v>614</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>66</v>
@@ -4238,13 +4871,16 @@
       <c r="E16">
         <v>693</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>66</v>
@@ -4255,285 +4891,336 @@
       <c r="E17">
         <v>693</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="D18">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="E18">
-        <v>5434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5270</v>
+      </c>
+      <c r="F18">
+        <v>20859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="D19">
-        <v>1419</v>
+        <v>1330</v>
       </c>
       <c r="E19">
-        <v>5434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5270</v>
+      </c>
+      <c r="F19">
+        <v>20859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D20">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E20">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2694</v>
+      </c>
+      <c r="F20">
+        <v>10439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D21">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E21">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2694</v>
+      </c>
+      <c r="F21">
+        <v>10439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E22">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F22">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E23">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F23">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F24">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="E25">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F25">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="D26">
-        <v>1473</v>
+        <v>1398</v>
       </c>
       <c r="E26">
-        <v>6086</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5856</v>
+      </c>
+      <c r="F26">
+        <v>23258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="D27">
-        <v>1473</v>
+        <v>1398</v>
       </c>
       <c r="E27">
-        <v>6086</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5856</v>
+      </c>
+      <c r="F27">
+        <v>23258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E28">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2670</v>
+      </c>
+      <c r="F28">
+        <v>10271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D29">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E29">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2670</v>
+      </c>
+      <c r="F29">
+        <v>10271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>295</v>
+        <v>121</v>
       </c>
       <c r="E30">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F30">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>295</v>
+        <v>121</v>
       </c>
       <c r="E31">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F31">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E32">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F32">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E33">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="F33">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>70</v>
@@ -4544,13 +5231,16 @@
       <c r="E34">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>70</v>
@@ -4561,13 +5251,16 @@
       <c r="E35">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>61</v>
@@ -4578,13 +5271,16 @@
       <c r="E36">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>61</v>
@@ -4595,13 +5291,16 @@
       <c r="E37">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>22</v>
@@ -4612,13 +5311,16 @@
       <c r="E38">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>22</v>
@@ -4629,13 +5331,16 @@
       <c r="E39">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>25</v>
@@ -4646,13 +5351,16 @@
       <c r="E40">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>25</v>
@@ -4663,13 +5371,16 @@
       <c r="E41">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <v>64</v>
@@ -4680,13 +5391,16 @@
       <c r="E42">
         <v>131</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>64</v>
@@ -4697,13 +5411,16 @@
       <c r="E43">
         <v>131</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>61</v>
@@ -4714,13 +5431,16 @@
       <c r="E44">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>61</v>
@@ -4731,13 +5451,16 @@
       <c r="E45">
         <v>140</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -4748,13 +5471,16 @@
       <c r="E46">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47">
         <v>30</v>
@@ -4765,13 +5491,16 @@
       <c r="E47">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>28</v>
@@ -4782,13 +5511,16 @@
       <c r="E48">
         <v>104</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49">
         <v>28</v>
@@ -4799,149 +5531,176 @@
       <c r="E49">
         <v>104</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50">
+        <v>28</v>
+      </c>
+      <c r="E50">
+        <v>28</v>
+      </c>
+      <c r="F50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51">
+        <v>28</v>
+      </c>
+      <c r="F51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
         <v>29</v>
       </c>
-      <c r="E50">
+      <c r="D52">
+        <v>36</v>
+      </c>
+      <c r="E52">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51">
-        <v>22</v>
-      </c>
-      <c r="D51">
+      <c r="D53">
+        <v>36</v>
+      </c>
+      <c r="E53">
+        <v>36</v>
+      </c>
+      <c r="F53">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>34</v>
+      </c>
+      <c r="E54">
+        <v>32</v>
+      </c>
+      <c r="F54">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>32</v>
+      </c>
+      <c r="F55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
         <v>29</v>
       </c>
-      <c r="E51">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52">
-        <v>30</v>
-      </c>
-      <c r="D52">
-        <v>40</v>
-      </c>
-      <c r="E52">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53">
-        <v>30</v>
-      </c>
-      <c r="D53">
-        <v>40</v>
-      </c>
-      <c r="E53">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54">
-        <v>22</v>
-      </c>
-      <c r="D54">
+      <c r="D56">
         <v>35</v>
       </c>
-      <c r="E54">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55">
-        <v>22</v>
-      </c>
-      <c r="D55">
+      <c r="E56">
         <v>35</v>
       </c>
-      <c r="E55">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56">
-        <v>30</v>
-      </c>
-      <c r="D56">
-        <v>36</v>
-      </c>
-      <c r="E56">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="F57">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58">
         <v>34</v>
@@ -4950,15 +5709,18 @@
         <v>46</v>
       </c>
       <c r="E58">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>34</v>
@@ -4967,83 +5729,98 @@
         <v>46</v>
       </c>
       <c r="E59">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60">
         <v>45</v>
       </c>
       <c r="E60">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F60">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61">
         <v>45</v>
       </c>
       <c r="E61">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F61">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>33</v>
       </c>
       <c r="D62">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E62">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F62">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>33</v>
       </c>
       <c r="D63">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E63">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F63">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>28</v>
@@ -5052,15 +5829,18 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>28</v>
@@ -5069,7 +5849,10 @@
         <v>43</v>
       </c>
       <c r="E65">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
